--- a/template/stock_gift_export.xlsx
+++ b/template/stock_gift_export.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57387FF-736F-42E4-B588-37AEDA195912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA1B935-9489-4815-9537-86C393789910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,6 +413,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,12 +441,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,38 +726,38 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D3" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -792,12 +792,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -830,12 +830,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -868,12 +868,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -898,20 +898,20 @@
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/template/stock_gift_export.xlsx
+++ b/template/stock_gift_export.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA1B935-9489-4815-9537-86C393789910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C4EBF6-3C9F-43C7-A0B1-AED6B71A7882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{500ABC32-4DCC-4EC0-B5B0-3F50066EC86D}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{5E679041-FEF9-463F-8CFA-8073A215F6E3}">
       <text>
         <r>
           <rPr>
@@ -63,11 +64,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-xian_gift</t>
+purchase_month_gift</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{5C2011B4-F25A-49BF-8869-2B14B60A616A}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{FE9A9C61-D0BB-4757-9FBF-D3E76C670C47}">
       <text>
         <r>
           <rPr>
@@ -89,11 +90,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-yanan_gift</t>
+purchase_month_sum</t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{E99CC9BA-BB20-43E4-839E-D088BE487B76}">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{3D3B46FF-3FD6-4990-97E6-45639E1EF814}">
       <text>
         <r>
           <rPr>
@@ -115,11 +116,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-chengdu_gift</t>
+purchase_year_date</t>
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{5E679041-FEF9-463F-8CFA-8073A215F6E3}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{6817A504-BD86-45FF-8F2E-F3A351E01728}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -137,15 +137,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-purchase_gift</t>
+purchase_year_sum</t>
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{FE9A9C61-D0BB-4757-9FBF-D3E76C670C47}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{DA585DD6-84E8-42A5-8DCB-820E3EF61E7F}">
       <text>
         <r>
           <rPr>
@@ -153,6 +152,40 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+purchase_year_value</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2222D0A2-40C7-4B32-9BBF-453689C67368}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
@@ -167,7 +200,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-purchase_sum</t>
+warehouse</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{A00B2D97-4167-4825-BFE4-738A0AF0A8B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+warehouseStockTitle</t>
         </r>
       </text>
     </comment>
@@ -176,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>出入数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采购情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,15 +285,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成都库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西安库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延安库</t>
+    <t>本月采购情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购合计金额(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余库存价值(元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +301,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +372,35 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -389,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,13 +506,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -437,11 +518,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,13 +834,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D1:D1048576"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
@@ -739,191 +850,178 @@
     <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+    <row r="1" spans="1:8" ht="18.75">
+      <c r="A1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+    <row r="2" spans="1:8" ht="18">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:8" ht="24" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.95" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8E76C8-AA3D-4969-B1DB-ECE11FB5AF6C}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.75" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/template/stock_gift_export.xlsx
+++ b/template/stock_gift_export.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C4EBF6-3C9F-43C7-A0B1-AED6B71A7882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD62FF33-01EC-4332-B3BE-F7550315325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="周报" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -172,78 +171,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Administrator</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2222D0A2-40C7-4B32-9BBF-453689C67368}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-warehouse</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{A00B2D97-4167-4825-BFE4-738A0AF0A8B9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-warehouseStockTitle</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
-  <si>
-    <t>出入数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,18 +191,6 @@
   </si>
   <si>
     <t>礼品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,14 +298,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -476,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -497,16 +406,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -518,6 +433,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -535,24 +456,6 @@
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,7 +743,7 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
@@ -850,39 +753,39 @@
     <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="21.95" customHeight="1">
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -890,138 +793,85 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8E76C8-AA3D-4969-B1DB-ECE11FB5AF6C}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>